--- a/src/ontology/mappings/OBO-space/07.03.2025-mapped-terms-analysis.xlsx
+++ b/src/ontology/mappings/OBO-space/07.03.2025-mapped-terms-analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\fathoni\github\molsim-ontology\src\ontology\mappings\OBO-space\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DE30D0-873C-4BE1-97CF-AFA4C7C30548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE1489A-92D2-43F6-95DB-33F53DFBAFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="-18120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,6 +90,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{9BE479D2-25A7-47E9-9BA9-755436D2733A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fathoni Musyaffa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+discard/map/import</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H57" authorId="0" shapeId="0" xr:uid="{EEE3CCF8-CAA3-4D5F-A8C6-5B20EB50EEE5}">
       <text>
         <r>
@@ -110,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="592">
   <si>
     <t>subject_label</t>
   </si>
@@ -2918,9 +2942,6 @@
 </t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>P-value as result of one of the processing steps described. Specify in the description, which processing step it was.</t>
   </si>
   <si>
@@ -3101,9 +3122,6 @@
     <t>Changes in version imply substantive changes in content rather than differences in format. This property is intended to be used with non-literal values. This property is an inverse property of Is Version Of. A related resource that is a version, edition, or adaptation of the described resource.</t>
   </si>
   <si>
-    <t>likely not</t>
-  </si>
-  <si>
     <t>A channel formed as a result of a stream cutting through a meander neck.</t>
   </si>
   <si>
@@ -3132,6 +3150,99 @@
   </si>
   <si>
     <t>(not resolvable)</t>
+  </si>
+  <si>
+    <t>similar to IAO:0000010</t>
+  </si>
+  <si>
+    <t>similar to FIX:0000327</t>
+  </si>
+  <si>
+    <t>similar to SBO:0000393</t>
+  </si>
+  <si>
+    <t>similar to IDO:0000607</t>
+  </si>
+  <si>
+    <t>similar to NCIT:C54165</t>
+  </si>
+  <si>
+    <t>similar to SBO:0000212</t>
+  </si>
+  <si>
+    <t>similar to FBcv:0003108</t>
+  </si>
+  <si>
+    <t>similar to MS:1000531</t>
+  </si>
+  <si>
+    <t>similar to OMIT:0003464</t>
+  </si>
+  <si>
+    <t>relevant/anything similar?</t>
+  </si>
+  <si>
+    <t>similar to APOLLO:SV_00000422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">similar to NCIT:C28901 </t>
+  </si>
+  <si>
+    <t>similar to ExO:0000090</t>
+  </si>
+  <si>
+    <t>most likely no</t>
+  </si>
+  <si>
+    <t>similar to SIO:000510</t>
+  </si>
+  <si>
+    <t>possibly, but the ontology does not seems to be maintained/mature enough</t>
+  </si>
+  <si>
+    <t>discard (as there are other terms containing the term model?)</t>
+  </si>
+  <si>
+    <t>similar to NCIT:C16866</t>
+  </si>
+  <si>
+    <t>similar to MI:0077</t>
+  </si>
+  <si>
+    <t>similar to NCIT:C16921</t>
+  </si>
+  <si>
+    <t>similar to CHEBI:32588</t>
+  </si>
+  <si>
+    <t>similar to NCIT:C47679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Principal Component Analysis </t>
+  </si>
+  <si>
+    <t>similar to OMIT:0021132</t>
+  </si>
+  <si>
+    <t>similar to NCIT:C49291</t>
+  </si>
+  <si>
+    <t>similar to MS:1002072, NCIT:C44185</t>
+  </si>
+  <si>
+    <t>similar to MS:1002072,OBI:0000175</t>
+  </si>
+  <si>
+    <t>similar to OBI:0000175, NCIT:C44185</t>
+  </si>
+  <si>
+    <t>all of these seems similar: PATO:0001025, CVDO:0000193</t>
+  </si>
+  <si>
+    <t>all of these seems similar: SWO:0004000, SLSO:0001174, DCTERMS:hasVersion, OIO:hasVersion</t>
+  </si>
+  <si>
+    <t>all of these seem similar: ENVO:00000523, NCIT:C47877, STATO:0000633</t>
   </si>
 </sst>
 </file>
@@ -3375,7 +3486,7 @@
   <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3458,7 +3569,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>17</v>
@@ -3488,7 +3599,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -3504,8 +3615,8 @@
       <c r="E3" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>552</v>
+      <c r="F3" s="6" t="s">
+        <v>589</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>27</v>
@@ -3535,7 +3646,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -3549,7 +3660,10 @@
         <v>32</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>590</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>33</v>
@@ -3579,7 +3693,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -3593,10 +3707,10 @@
         <v>38</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>591</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>39</v>
@@ -3626,7 +3740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -3640,8 +3754,9 @@
         <v>44</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>554</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="F6" s="6"/>
       <c r="H6" s="3" t="s">
         <v>45</v>
       </c>
@@ -3667,7 +3782,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
@@ -3681,8 +3796,9 @@
         <v>50</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>555</v>
-      </c>
+        <v>553</v>
+      </c>
+      <c r="F7" s="6"/>
       <c r="H7" s="3" t="s">
         <v>51</v>
       </c>
@@ -3711,7 +3827,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -3725,7 +3841,10 @@
         <v>55</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>591</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>56</v>
@@ -3755,7 +3874,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>59</v>
       </c>
@@ -3769,8 +3888,9 @@
         <v>62</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>557</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="F9" s="6"/>
       <c r="H9" s="3" t="s">
         <v>63</v>
       </c>
@@ -3799,7 +3919,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -3815,6 +3935,9 @@
       <c r="E10" s="7" t="s">
         <v>481</v>
       </c>
+      <c r="F10" s="6" t="s">
+        <v>590</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>67</v>
       </c>
@@ -3843,7 +3966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -3857,8 +3980,9 @@
         <v>68</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>558</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="F11" s="6"/>
       <c r="H11" s="3" t="s">
         <v>69</v>
       </c>
@@ -3887,7 +4011,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -3901,7 +4025,10 @@
         <v>72</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>590</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>73</v>
@@ -3931,7 +4058,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -3945,8 +4072,9 @@
         <v>78</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>560</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="F13" s="6"/>
       <c r="H13" s="3" t="s">
         <v>79</v>
       </c>
@@ -3975,7 +4103,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -3989,7 +4117,10 @@
         <v>82</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>591</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>83</v>
@@ -4019,7 +4150,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -4033,7 +4164,10 @@
         <v>84</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>590</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>85</v>
@@ -4099,18 +4233,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="J100" sqref="J100"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.81640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.6328125" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.90625" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6328125" style="7" customWidth="1"/>
-    <col min="6" max="7" width="16.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="72.36328125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="16.6328125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="16.6328125" style="1" customWidth="1"/>
     <col min="8" max="8" width="114.1796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="48.6328125" style="1" customWidth="1"/>
     <col min="10" max="10" width="33.7265625" style="1" customWidth="1"/>
@@ -4123,7 +4258,7 @@
     <col min="17" max="17" width="23.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4139,8 +4274,8 @@
       <c r="E1" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>475</v>
+      <c r="F1" s="6" t="s">
+        <v>570</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>466</v>
@@ -4176,7 +4311,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>90</v>
       </c>
@@ -4223,7 +4358,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>97</v>
       </c>
@@ -4237,10 +4372,10 @@
         <v>100</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>547</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>548</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>101</v>
@@ -4270,7 +4405,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>104</v>
       </c>
@@ -4317,7 +4452,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>111</v>
       </c>
@@ -4364,7 +4499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>118</v>
       </c>
@@ -4380,6 +4515,9 @@
       <c r="E6" s="10" t="s">
         <v>473</v>
       </c>
+      <c r="F6" s="6" t="s">
+        <v>581</v>
+      </c>
       <c r="H6" s="3" t="s">
         <v>121</v>
       </c>
@@ -4411,7 +4549,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>123</v>
       </c>
@@ -4427,6 +4565,9 @@
       <c r="E7" s="7" t="s">
         <v>474</v>
       </c>
+      <c r="F7" s="6" t="s">
+        <v>582</v>
+      </c>
       <c r="H7" s="3" t="s">
         <v>126</v>
       </c>
@@ -4458,7 +4599,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>128</v>
       </c>
@@ -4505,7 +4646,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>128</v>
       </c>
@@ -4519,7 +4660,7 @@
         <v>135</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>469</v>
@@ -4558,7 +4699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>140</v>
       </c>
@@ -4575,10 +4716,10 @@
         <v>478</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>469</v>
+        <v>576</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>467</v>
+        <v>577</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>143</v>
@@ -4611,7 +4752,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>147</v>
       </c>
@@ -4658,7 +4799,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>152</v>
       </c>
@@ -4705,7 +4846,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>159</v>
       </c>
@@ -4752,7 +4893,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>166</v>
       </c>
@@ -4799,7 +4940,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>171</v>
       </c>
@@ -4846,7 +4987,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>176</v>
       </c>
@@ -4893,7 +5034,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>180</v>
       </c>
@@ -4909,6 +5050,9 @@
       <c r="E17" s="7" t="s">
         <v>484</v>
       </c>
+      <c r="F17" s="6" t="s">
+        <v>568</v>
+      </c>
       <c r="H17" s="3" t="s">
         <v>183</v>
       </c>
@@ -4937,7 +5081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>186</v>
       </c>
@@ -4984,7 +5128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>191</v>
       </c>
@@ -5031,7 +5175,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>198</v>
       </c>
@@ -5047,6 +5191,9 @@
       <c r="E20" s="7" t="s">
         <v>487</v>
       </c>
+      <c r="F20" s="6" t="s">
+        <v>563</v>
+      </c>
       <c r="H20" s="3" t="s">
         <v>201</v>
       </c>
@@ -5078,7 +5225,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>205</v>
       </c>
@@ -5092,7 +5239,7 @@
         <v>207</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>208</v>
@@ -5122,7 +5269,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>211</v>
       </c>
@@ -5136,7 +5283,10 @@
         <v>213</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>580</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>214</v>
@@ -5166,7 +5316,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>159</v>
       </c>
@@ -5210,7 +5360,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>221</v>
       </c>
@@ -5254,7 +5404,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>180</v>
       </c>
@@ -5270,8 +5420,8 @@
       <c r="E25" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>491</v>
+      <c r="F25" s="6" t="s">
+        <v>561</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>227</v>
@@ -5304,7 +5454,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>229</v>
       </c>
@@ -5318,10 +5468,13 @@
         <v>231</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>492</v>
+        <v>491</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>588</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>232</v>
@@ -5351,7 +5504,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>198</v>
       </c>
@@ -5365,10 +5518,10 @@
         <v>234</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>493</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>494</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>235</v>
@@ -5401,7 +5554,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>166</v>
       </c>
@@ -5415,7 +5568,10 @@
         <v>238</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>562</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>239</v>
@@ -5448,7 +5604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>140</v>
       </c>
@@ -5462,7 +5618,10 @@
         <v>242</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>575</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>243</v>
@@ -5495,7 +5654,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>211</v>
       </c>
@@ -5509,10 +5668,13 @@
         <v>248</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>579</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>249</v>
@@ -5542,7 +5704,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>250</v>
       </c>
@@ -5556,7 +5718,7 @@
         <v>253</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>254</v>
@@ -5589,7 +5751,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>159</v>
       </c>
@@ -5603,7 +5765,7 @@
         <v>257</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>258</v>
@@ -5636,7 +5798,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>260</v>
       </c>
@@ -5650,7 +5812,7 @@
         <v>263</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>264</v>
@@ -5683,7 +5845,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>266</v>
       </c>
@@ -5697,7 +5859,7 @@
         <v>269</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>270</v>
@@ -5730,7 +5892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>152</v>
       </c>
@@ -5744,7 +5906,10 @@
         <v>273</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>567</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>274</v>
@@ -5777,7 +5942,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>276</v>
       </c>
@@ -5791,7 +5956,7 @@
         <v>279</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>280</v>
@@ -5824,7 +5989,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>90</v>
       </c>
@@ -5838,7 +6003,7 @@
         <v>283</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>284</v>
@@ -5871,7 +6036,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>286</v>
       </c>
@@ -5885,7 +6050,10 @@
         <v>289</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>569</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>290</v>
@@ -5918,7 +6086,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>292</v>
       </c>
@@ -5932,7 +6100,7 @@
         <v>295</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>296</v>
@@ -5965,7 +6133,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>140</v>
       </c>
@@ -5979,7 +6147,10 @@
         <v>298</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>574</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>299</v>
@@ -6012,7 +6183,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>229</v>
       </c>
@@ -6026,7 +6197,10 @@
         <v>302</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>587</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>303</v>
@@ -6059,7 +6233,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>123</v>
       </c>
@@ -6073,7 +6247,10 @@
         <v>306</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>581</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>307</v>
@@ -6106,7 +6283,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>309</v>
       </c>
@@ -6120,7 +6297,7 @@
         <v>312</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>313</v>
@@ -6153,7 +6330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>317</v>
       </c>
@@ -6167,7 +6344,7 @@
         <v>320</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>321</v>
@@ -6200,7 +6377,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>323</v>
       </c>
@@ -6208,13 +6385,16 @@
         <v>324</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>325</v>
+        <v>583</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>326</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>584</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>327</v>
@@ -6247,7 +6427,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>329</v>
       </c>
@@ -6261,7 +6441,7 @@
         <v>332</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>333</v>
@@ -6294,7 +6474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>335</v>
       </c>
@@ -6308,7 +6488,10 @@
         <v>338</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>566</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>339</v>
@@ -6341,7 +6524,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>341</v>
       </c>
@@ -6355,7 +6538,7 @@
         <v>344</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>469</v>
@@ -6394,7 +6577,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>347</v>
       </c>
@@ -6408,7 +6591,7 @@
         <v>350</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>351</v>
@@ -6441,7 +6624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>147</v>
       </c>
@@ -6455,7 +6638,10 @@
         <v>354</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>573</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>355</v>
@@ -6488,7 +6674,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>357</v>
       </c>
@@ -6502,7 +6688,7 @@
         <v>360</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>361</v>
@@ -6535,7 +6721,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>363</v>
       </c>
@@ -6549,7 +6735,7 @@
         <v>366</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>367</v>
@@ -6582,7 +6768,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>90</v>
       </c>
@@ -6596,7 +6782,7 @@
         <v>369</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>469</v>
@@ -6635,7 +6821,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>372</v>
       </c>
@@ -6649,10 +6835,10 @@
         <v>375</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>376</v>
@@ -6682,7 +6868,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>229</v>
       </c>
@@ -6696,7 +6882,10 @@
         <v>377</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>586</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>378</v>
@@ -6729,7 +6918,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>382</v>
       </c>
@@ -6743,7 +6932,7 @@
         <v>384</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>385</v>
@@ -6776,7 +6965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>140</v>
       </c>
@@ -6790,12 +6979,12 @@
         <v>389</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="F57" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F57" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" s="6" t="s">
         <v>467</v>
       </c>
       <c r="H57" s="3" t="s">
@@ -6829,7 +7018,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>286</v>
       </c>
@@ -6845,6 +7034,9 @@
       <c r="E58" s="7" t="s">
         <v>481</v>
       </c>
+      <c r="F58" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="H58" s="3" t="s">
         <v>393</v>
       </c>
@@ -6876,7 +7068,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>397</v>
       </c>
@@ -6923,7 +7115,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>97</v>
       </c>
@@ -6939,6 +7131,9 @@
       <c r="E60" s="7" t="s">
         <v>481</v>
       </c>
+      <c r="F60" s="6" t="s">
+        <v>571</v>
+      </c>
       <c r="H60" s="3" t="s">
         <v>405</v>
       </c>
@@ -6970,7 +7165,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>407</v>
       </c>
@@ -6993,7 +7188,7 @@
         <v>467</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>411</v>
@@ -7023,7 +7218,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>323</v>
       </c>
@@ -7039,6 +7234,9 @@
       <c r="E62" s="7" t="s">
         <v>481</v>
       </c>
+      <c r="F62" s="6" t="s">
+        <v>585</v>
+      </c>
       <c r="H62" s="3" t="s">
         <v>413</v>
       </c>
@@ -7070,7 +7268,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>415</v>
       </c>
@@ -7084,10 +7282,10 @@
         <v>417</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>418</v>
@@ -7117,7 +7315,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>335</v>
       </c>
@@ -7131,10 +7329,13 @@
         <v>419</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>565</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>420</v>
@@ -7161,7 +7362,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>198</v>
       </c>
@@ -7175,7 +7376,10 @@
         <v>422</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>564</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>423</v>
@@ -7205,7 +7409,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>140</v>
       </c>
@@ -7219,10 +7423,13 @@
         <v>425</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>578</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>426</v>
@@ -7252,7 +7459,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>427</v>
       </c>
@@ -7266,7 +7473,7 @@
         <v>429</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>430</v>
@@ -7299,7 +7506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>432</v>
       </c>
@@ -7313,7 +7520,7 @@
         <v>434</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>435</v>
@@ -7346,7 +7553,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>437</v>
       </c>
@@ -7360,7 +7567,7 @@
         <v>439</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>440</v>
@@ -7393,7 +7600,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>229</v>
       </c>
@@ -7407,7 +7614,7 @@
         <v>442</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>443</v>
@@ -7440,7 +7647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>445</v>
       </c>
@@ -7454,10 +7661,10 @@
         <v>447</v>
       </c>
       <c r="E71" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="H71" s="8" t="s">
         <v>535</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>536</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>86</v>
@@ -7484,7 +7691,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>90</v>
       </c>
@@ -7498,7 +7705,13 @@
         <v>448</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>467</v>
       </c>
       <c r="H72" s="5" t="s">
         <v>449</v>
@@ -7528,7 +7741,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>452</v>
       </c>
@@ -7542,7 +7755,7 @@
         <v>455</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>469</v>
@@ -7578,7 +7791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>459</v>
       </c>
@@ -7592,7 +7805,7 @@
         <v>461</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>469</v>

--- a/src/ontology/mappings/OBO-space/07.03.2025-mapped-terms-analysis.xlsx
+++ b/src/ontology/mappings/OBO-space/07.03.2025-mapped-terms-analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\fathoni\github\molsim-ontology\src\ontology\mappings\OBO-space\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE1489A-92D2-43F6-95DB-33F53DFBAFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B16150A-A89B-4C78-B1DE-26C6A46BF82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="-18120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Property" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <author>Fathoni Musyaffa</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{B5B1F8CB-CF5E-4D9D-BA44-2665F66C0AC7}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{B5B1F8CB-CF5E-4D9D-BA44-2665F66C0AC7}">
       <text>
         <r>
           <rPr>
@@ -66,7 +66,7 @@
     <author>Fathoni Musyaffa</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{FD70145D-7107-43DB-A860-9A80012C7D46}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{FD70145D-7107-43DB-A860-9A80012C7D46}">
       <text>
         <r>
           <rPr>
@@ -90,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{9BE479D2-25A7-47E9-9BA9-755436D2733A}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{9BE479D2-25A7-47E9-9BA9-755436D2733A}">
       <text>
         <r>
           <rPr>
@@ -114,7 +114,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="H57" authorId="0" shapeId="0" xr:uid="{EEE3CCF8-CAA3-4D5F-A8C6-5B20EB50EEE5}">
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{6EF1EFDE-CDC0-44F5-8525-890BD57D9D05}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fathoni Musyaffa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Quality issue</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I57" authorId="0" shapeId="0" xr:uid="{EEE3CCF8-CAA3-4D5F-A8C6-5B20EB50EEE5}">
       <text>
         <r>
           <rPr>
@@ -134,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="596">
   <si>
     <t>subject_label</t>
   </si>
@@ -3243,6 +3267,18 @@
   </si>
   <si>
     <t>all of these seem similar: ENVO:00000523, NCIT:C47877, STATO:0000633</t>
+  </si>
+  <si>
+    <t>discard - possibly due to irrelevance, scope mismatch, maintenance/quality issues</t>
+  </si>
+  <si>
+    <t>need to be discussed further</t>
+  </si>
+  <si>
+    <t>hierarchy reusable?</t>
+  </si>
+  <si>
+    <t>hierarchy relevant?</t>
   </si>
 </sst>
 </file>
@@ -3319,12 +3355,24 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3340,7 +3388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -3355,6 +3403,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3483,10 +3533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X25"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3494,18 +3544,18 @@
     <col min="1" max="1" width="29.08984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.453125" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.54296875" style="1" customWidth="1"/>
-    <col min="4" max="7" width="23.90625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="114.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31.7265625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="53.36328125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.08984375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="24.90625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="28.7265625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="23.453125" style="1" customWidth="1"/>
+    <col min="4" max="8" width="23.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="114.90625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="31.7265625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1796875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="53.36328125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.08984375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24.90625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="28.7265625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="23.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3521,41 +3571,44 @@
       <c r="E1" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -3565,41 +3618,42 @@
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="7"/>
+      <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>0.70922708511352495</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="4">
-        <v>45722</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="4">
+        <v>45722</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -3609,44 +3663,45 @@
       <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>1</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="4">
-        <v>45722</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="4">
+        <v>45722</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -3662,38 +3717,39 @@
       <c r="E4" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>1</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="4">
-        <v>45722</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="4">
+        <v>45722</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -3709,38 +3765,39 @@
       <c r="E5" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>0.75667685270309504</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="4">
-        <v>45722</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="4">
+        <v>45722</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -3750,39 +3807,40 @@
       <c r="C6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="12" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="H6" s="3" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="6"/>
+      <c r="I6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>1</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="4">
-        <v>45722</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="4">
+        <v>45722</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
@@ -3792,42 +3850,43 @@
       <c r="C7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="12" t="s">
         <v>50</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="H7" s="3" t="s">
+      <c r="F7" s="7"/>
+      <c r="G7" s="6"/>
+      <c r="I7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>0.70827037096023604</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="4">
-        <v>45722</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="4">
+        <v>45722</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -3843,38 +3902,39 @@
       <c r="E8" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="7"/>
+      <c r="G8" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>0.87147575616836603</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="4">
-        <v>45722</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="4">
+        <v>45722</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>59</v>
       </c>
@@ -3890,36 +3950,37 @@
       <c r="E9" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="H9" s="3" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="6"/>
+      <c r="I9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>0.70970809459686302</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="4">
-        <v>45722</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="4">
+        <v>45722</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -3929,44 +3990,45 @@
       <c r="C10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="12" t="s">
         <v>66</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>1</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" s="4">
-        <v>45722</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="4">
+        <v>45722</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -3976,42 +4038,43 @@
       <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="13" t="s">
         <v>68</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>556</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="H11" s="3" t="s">
+      <c r="F11" s="10"/>
+      <c r="G11" s="6"/>
+      <c r="I11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>0.74744397401809703</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="4">
-        <v>45722</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="4">
+        <v>45722</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -4021,44 +4084,45 @@
       <c r="C12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="7"/>
+      <c r="G12" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>0.78109103441238403</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="4">
-        <v>45722</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="4">
+        <v>45722</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -4074,36 +4138,37 @@
       <c r="E13" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="H13" s="3" t="s">
+      <c r="F13" s="7"/>
+      <c r="G13" s="6"/>
+      <c r="I13" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>0.93951332569122303</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" s="4">
-        <v>45722</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="4">
+        <v>45722</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -4119,38 +4184,39 @@
       <c r="E14" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>0.917954981327057</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" s="4">
-        <v>45722</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="4">
+        <v>45722</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -4166,58 +4232,69 @@
       <c r="E15" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="7"/>
+      <c r="G15" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>0.83605223894119296</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="4">
-        <v>45722</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="4">
+        <v>45722</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="24:24" x14ac:dyDescent="0.25">
-      <c r="X25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D19" s="12" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="20" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D20" s="13" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="25" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="Y25" s="1" t="s">
         <v>88</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="https://www.ebi.ac.uk/ols/ontologies/agro/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FAGRO_00000324" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H3" r:id="rId2" display="https://www.ebi.ac.uk/ols/ontologies/cvdo/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FCVDO_0000193" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H4" r:id="rId3" display="https://www.ebi.ac.uk/ols/ontologies/dcterms/terms?iri=http%3A%2F%2Fpurl.org%2Fdc%2Fterms%2FhasVersion" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H5" r:id="rId4" display="https://www.ebi.ac.uk/ols/ontologies/envo/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FENVO_00000523" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="H6" r:id="rId5" display="https://www.ebi.ac.uk/ols/ontologies/micro/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FMICRO_0001301" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="H7" r:id="rId6" display="https://www.ebi.ac.uk/ols/ontologies/ms/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FMS_1003043" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="H8" r:id="rId7" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C47877" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="H9" r:id="rId8" display="https://www.ebi.ac.uk/ols/ontologies/obi/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FOBI_0003221" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="H10" r:id="rId9" display="https://www.ebi.ac.uk/ols/ontologies/oio/terms?iri=http%3A%2F%2Fwww.geneontology.org%2Fformats%2FoboInOwl%23hasVersion" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="H11" r:id="rId10" display="https://www.ebi.ac.uk/ols/ontologies/pato/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001025" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="H12" r:id="rId11" display="https://www.ebi.ac.uk/ols/ontologies/slso/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FSLSO_0001174" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="H13" r:id="rId12" display="https://www.ebi.ac.uk/ols/ontologies/stato/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FSTATO_0000564" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="H14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="H15" r:id="rId14" display="https://www.ebi.ac.uk/ols/ontologies/swo/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FSWO_0004000" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="I2" r:id="rId1" display="https://www.ebi.ac.uk/ols/ontologies/agro/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FAGRO_00000324" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" display="https://www.ebi.ac.uk/ols/ontologies/cvdo/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FCVDO_0000193" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I4" r:id="rId3" display="https://www.ebi.ac.uk/ols/ontologies/dcterms/terms?iri=http%3A%2F%2Fpurl.org%2Fdc%2Fterms%2FhasVersion" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I5" r:id="rId4" display="https://www.ebi.ac.uk/ols/ontologies/envo/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FENVO_00000523" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I6" r:id="rId5" display="https://www.ebi.ac.uk/ols/ontologies/micro/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FMICRO_0001301" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I7" r:id="rId6" display="https://www.ebi.ac.uk/ols/ontologies/ms/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FMS_1003043" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I8" r:id="rId7" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C47877" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I9" r:id="rId8" display="https://www.ebi.ac.uk/ols/ontologies/obi/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FOBI_0003221" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I10" r:id="rId9" display="https://www.ebi.ac.uk/ols/ontologies/oio/terms?iri=http%3A%2F%2Fwww.geneontology.org%2Fformats%2FoboInOwl%23hasVersion" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I11" r:id="rId10" display="https://www.ebi.ac.uk/ols/ontologies/pato/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FPATO_0001025" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="I12" r:id="rId11" display="https://www.ebi.ac.uk/ols/ontologies/slso/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FSLSO_0001174" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I13" r:id="rId12" display="https://www.ebi.ac.uk/ols/ontologies/stato/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FSTATO_0000564" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="I14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I15" r:id="rId14" display="https://www.ebi.ac.uk/ols/ontologies/swo/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FSWO_0004000" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
@@ -4231,10 +4308,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:R74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="C53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -4243,22 +4320,22 @@
     <col min="2" max="2" width="13.6328125" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.90625" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="72.36328125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="16.6328125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="16.6328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="114.1796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="48.6328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="33.7265625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.90625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="57.1796875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.08984375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="24.26953125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.81640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="81" style="1" customWidth="1"/>
-    <col min="17" max="17" width="23.7265625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="72.36328125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.6328125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="16.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="114.1796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="48.6328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="33.7265625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.90625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="57.1796875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.08984375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="24.26953125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.81640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="81" style="1" customWidth="1"/>
+    <col min="18" max="18" width="23.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4275,43 +4352,46 @@
         <v>472</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>90</v>
       </c>
@@ -4321,44 +4401,44 @@
       <c r="C2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="13" t="s">
         <v>92</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>1</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="4">
+        <v>45722</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>97</v>
       </c>
@@ -4374,38 +4454,38 @@
       <c r="E3" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>0.72978299856185902</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="4">
+        <v>45722</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>104</v>
       </c>
@@ -4421,38 +4501,38 @@
       <c r="E4" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>0.78549265861511197</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="4">
+        <v>45722</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>111</v>
       </c>
@@ -4468,38 +4548,38 @@
       <c r="E5" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>0.93987822532653797</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O5" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="4">
+        <v>45722</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>118</v>
       </c>
@@ -4515,41 +4595,42 @@
       <c r="E6" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>0.92817044258117698</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="4">
+        <v>45722</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>123</v>
       </c>
@@ -4565,41 +4646,41 @@
       <c r="E7" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>0.91976189613342296</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="4">
+        <v>45722</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>128</v>
       </c>
@@ -4615,38 +4696,38 @@
       <c r="E8" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="I8" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>0.84565156698226895</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="4">
+        <v>45722</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>128</v>
       </c>
@@ -4656,50 +4737,50 @@
       <c r="C9" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="12" t="s">
         <v>135</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>0.74879896640777599</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O9" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" s="4">
+        <v>45722</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>140</v>
       </c>
@@ -4709,50 +4790,50 @@
       <c r="C10" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="12" t="s">
         <v>142</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>0.72355544567108199</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O10" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="4">
+        <v>45722</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>147</v>
       </c>
@@ -4762,44 +4843,44 @@
       <c r="C11" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="12" t="s">
         <v>149</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>0.79011136293411299</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O11" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" s="4">
+        <v>45722</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>152</v>
       </c>
@@ -4809,44 +4890,44 @@
       <c r="C12" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="12" t="s">
         <v>154</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L12" s="1">
         <v>0.75818914175033603</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O12" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="4">
+        <v>45722</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>159</v>
       </c>
@@ -4856,44 +4937,44 @@
       <c r="C13" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="12" t="s">
         <v>161</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
         <v>1</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O13" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="4">
+        <v>45722</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>166</v>
       </c>
@@ -4903,44 +4984,44 @@
       <c r="C14" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="12" t="s">
         <v>168</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="K14" s="1">
+      <c r="L14" s="1">
         <v>1</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O14" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" s="4">
+        <v>45722</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>171</v>
       </c>
@@ -4950,44 +5031,44 @@
       <c r="C15" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="12" t="s">
         <v>173</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="K15" s="1">
+      <c r="L15" s="1">
         <v>1</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O15" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="4">
+        <v>45722</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>176</v>
       </c>
@@ -4997,44 +5078,44 @@
       <c r="C16" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="12" t="s">
         <v>178</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="I16" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K16" s="1">
+      <c r="L16" s="1">
         <v>0.81256991624832198</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O16" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16" s="4">
+        <v>45722</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>180</v>
       </c>
@@ -5050,38 +5131,38 @@
       <c r="E17" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="K17" s="1">
+      <c r="L17" s="1">
         <v>0.78828787803649902</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O17" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P17" s="4">
+        <v>45722</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>186</v>
       </c>
@@ -5097,38 +5178,38 @@
       <c r="E18" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K18" s="1">
+      <c r="L18" s="1">
         <v>0.85170060396194502</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O18" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="4">
+        <v>45722</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>191</v>
       </c>
@@ -5144,38 +5225,38 @@
       <c r="E19" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="K19" s="1">
+      <c r="L19" s="1">
         <v>0.80083239078521695</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O19" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P19" s="4">
+        <v>45722</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>198</v>
       </c>
@@ -5191,41 +5272,41 @@
       <c r="E20" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="K20" s="1">
+      <c r="L20" s="1">
         <v>0.72383201122283902</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O20" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P20" s="4">
+        <v>45722</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>205</v>
       </c>
@@ -5241,35 +5322,35 @@
       <c r="E21" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="K21" s="1">
+      <c r="L21" s="1">
         <v>1</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O21" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P21" s="4">
+        <v>45722</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>211</v>
       </c>
@@ -5285,38 +5366,38 @@
       <c r="E22" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="G22" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K22" s="1">
+      <c r="L22" s="1">
         <v>0.868336021900177</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O22" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P22" s="4">
+        <v>45722</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>159</v>
       </c>
@@ -5332,35 +5413,35 @@
       <c r="E23" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K23" s="1">
+      <c r="L23" s="1">
         <v>0.92811328172683705</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O23" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" s="4">
+        <v>45722</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>221</v>
       </c>
@@ -5376,35 +5457,36 @@
       <c r="E24" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="F24" s="10"/>
+      <c r="I24" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K24" s="1">
+      <c r="L24" s="1">
         <v>0.82371234893798795</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O24" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="4">
+        <v>45722</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>180</v>
       </c>
@@ -5414,47 +5496,47 @@
       <c r="C25" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="12" t="s">
         <v>226</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K25" s="1">
+      <c r="L25" s="1">
         <v>0.81117045879364003</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="M25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M25" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O25" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="4">
+        <v>45722</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>229</v>
       </c>
@@ -5464,47 +5546,48 @@
       <c r="C26" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="12" t="s">
         <v>231</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>491</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="11"/>
+      <c r="G26" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="I26" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K26" s="1">
+      <c r="L26" s="1">
         <v>0.91121447086334195</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="M26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O26" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P26" s="4">
+        <v>45722</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>198</v>
       </c>
@@ -5520,41 +5603,41 @@
       <c r="E27" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="G27" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K27" s="1">
+      <c r="L27" s="1">
         <v>0.70296645164489802</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="M27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M27" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O27" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="4">
+        <v>45722</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>166</v>
       </c>
@@ -5570,41 +5653,41 @@
       <c r="E28" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="G28" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K28" s="1">
+      <c r="L28" s="1">
         <v>0.87467896938323997</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M28" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O28" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P28" s="4">
+        <v>45722</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>140</v>
       </c>
@@ -5620,41 +5703,41 @@
       <c r="E29" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="G29" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="K29" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="K29" s="1">
+      <c r="L29" s="1">
         <v>0.75886321067810103</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="M29" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="M29" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O29" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P29" s="4">
+        <v>45722</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>211</v>
       </c>
@@ -5670,41 +5753,41 @@
       <c r="E30" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="G30" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="I30" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K30" s="1">
+      <c r="L30" s="1">
         <v>0.85560393333435103</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="M30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M30" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O30" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P30" s="4">
+        <v>45722</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>250</v>
       </c>
@@ -5720,38 +5803,38 @@
       <c r="E31" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K31" s="1">
+      <c r="L31" s="1">
         <v>0.72355443239212003</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M31" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O31" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P31" s="4">
+        <v>45722</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>159</v>
       </c>
@@ -5767,38 +5850,38 @@
       <c r="E32" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="I32" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K32" s="1">
+      <c r="L32" s="1">
         <v>0.91862756013870195</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="M32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M32" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O32" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P32" s="4">
+        <v>45722</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>260</v>
       </c>
@@ -5814,38 +5897,39 @@
       <c r="E33" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="F33" s="10"/>
+      <c r="I33" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K33" s="1">
+      <c r="L33" s="1">
         <v>0.80266761779785201</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="M33" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M33" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O33" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P33" s="4">
+        <v>45722</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>266</v>
       </c>
@@ -5861,38 +5945,38 @@
       <c r="E34" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="I34" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="J34" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="K34" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K34" s="1">
+      <c r="L34" s="1">
         <v>0.82460218667983998</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="M34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M34" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O34" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P34" s="4">
+        <v>45722</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>152</v>
       </c>
@@ -5908,41 +5992,41 @@
       <c r="E35" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="G35" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="I35" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="J35" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K35" s="1">
+      <c r="L35" s="1">
         <v>0.72405582666397095</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="M35" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M35" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O35" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P35" s="4">
+        <v>45722</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>276</v>
       </c>
@@ -5958,38 +6042,38 @@
       <c r="E36" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="I36" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K36" s="1">
+      <c r="L36" s="1">
         <v>0.76270949840545699</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="M36" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M36" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O36" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P36" s="4">
+        <v>45722</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>90</v>
       </c>
@@ -6005,38 +6089,38 @@
       <c r="E37" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K37" s="1">
+      <c r="L37" s="1">
         <v>0.72555297613143899</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="M37" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M37" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O37" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P37" s="4">
+        <v>45722</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>286</v>
       </c>
@@ -6046,47 +6130,47 @@
       <c r="C38" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="12" t="s">
         <v>289</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="G38" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="I38" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="K38" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K38" s="1">
+      <c r="L38" s="1">
         <v>0.919700026512146</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="M38" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M38" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O38" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P38" s="4">
+        <v>45722</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>292</v>
       </c>
@@ -6102,38 +6186,38 @@
       <c r="E39" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="I39" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="J39" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="K39" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K39" s="1">
+      <c r="L39" s="1">
         <v>0.86139345169067405</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="M39" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M39" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O39" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P39" s="4">
+        <v>45722</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>140</v>
       </c>
@@ -6149,41 +6233,41 @@
       <c r="E40" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="G40" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="I40" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="J40" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="K40" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K40" s="1">
+      <c r="L40" s="1">
         <v>0.71478480100631703</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="M40" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M40" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O40" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P40" s="4">
+        <v>45722</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>229</v>
       </c>
@@ -6199,41 +6283,41 @@
       <c r="E41" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="G41" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="I41" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="J41" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="K41" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K41" s="1">
+      <c r="L41" s="1">
         <v>0.887900650501251</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="M41" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M41" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O41" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P41" s="4">
+        <v>45722</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>123</v>
       </c>
@@ -6249,41 +6333,41 @@
       <c r="E42" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="G42" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="J42" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="K42" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K42" s="1">
+      <c r="L42" s="1">
         <v>0.85987401008606001</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="M42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M42" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N42" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O42" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P42" s="4">
+        <v>45722</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>309</v>
       </c>
@@ -6299,38 +6383,38 @@
       <c r="E43" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="I43" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="K43" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="K43" s="1">
+      <c r="L43" s="1">
         <v>0.83836913108825695</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="M43" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="M43" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O43" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P43" s="4">
+        <v>45722</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>317</v>
       </c>
@@ -6346,38 +6430,38 @@
       <c r="E44" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="I44" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="J44" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="K44" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K44" s="1">
+      <c r="L44" s="1">
         <v>0.74527794122695901</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="M44" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M44" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N44" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O44" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P44" s="4">
+        <v>45722</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>323</v>
       </c>
@@ -6393,41 +6477,41 @@
       <c r="E45" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="G45" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="I45" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="K45" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K45" s="1">
+      <c r="L45" s="1">
         <v>0.84254330396652199</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="M45" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M45" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N45" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O45" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P45" s="4">
+        <v>45722</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>329</v>
       </c>
@@ -6443,38 +6527,38 @@
       <c r="E46" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="I46" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="J46" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="K46" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K46" s="1">
+      <c r="L46" s="1">
         <v>0.831279516220093</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="M46" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M46" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O46" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P46" s="4">
+        <v>45722</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>335</v>
       </c>
@@ -6490,41 +6574,41 @@
       <c r="E47" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="G47" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="I47" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="J47" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="K47" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K47" s="1">
+      <c r="L47" s="1">
         <v>0.88124710321426403</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="M47" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M47" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N47" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O47" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P47" s="4">
+        <v>45722</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>341</v>
       </c>
@@ -6540,44 +6624,44 @@
       <c r="E48" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="G48" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="H48" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="I48" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="J48" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="K48" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K48" s="1">
+      <c r="L48" s="1">
         <v>0.74793440103530895</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="M48" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M48" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N48" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O48" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P48" s="4">
+        <v>45722</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>347</v>
       </c>
@@ -6593,38 +6677,38 @@
       <c r="E49" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="I49" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="J49" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="K49" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K49" s="1">
+      <c r="L49" s="1">
         <v>0.86387962102890004</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="M49" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M49" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N49" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O49" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P49" s="4">
+        <v>45722</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>147</v>
       </c>
@@ -6640,41 +6724,41 @@
       <c r="E50" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="G50" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="I50" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="J50" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="K50" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K50" s="1">
+      <c r="L50" s="1">
         <v>0.79613053798675504</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="M50" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M50" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N50" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O50" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P50" s="4">
+        <v>45722</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>357</v>
       </c>
@@ -6690,38 +6774,38 @@
       <c r="E51" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="I51" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="J51" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="K51" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K51" s="1">
+      <c r="L51" s="1">
         <v>0.72549456357955899</v>
       </c>
-      <c r="L51" s="1" t="s">
+      <c r="M51" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M51" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O51" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P51" s="4">
+        <v>45722</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>363</v>
       </c>
@@ -6737,38 +6821,39 @@
       <c r="E52" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="F52" s="10"/>
+      <c r="I52" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="J52" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="K52" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K52" s="1">
+      <c r="L52" s="1">
         <v>0.84461927413940396</v>
       </c>
-      <c r="L52" s="1" t="s">
+      <c r="M52" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M52" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O52" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P52" s="4">
+        <v>45722</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>90</v>
       </c>
@@ -6784,44 +6869,44 @@
       <c r="E53" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="G53" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="H53" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="I53" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="J53" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="K53" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="K53" s="1">
+      <c r="L53" s="1">
         <v>0.73972177505493197</v>
       </c>
-      <c r="L53" s="1" t="s">
+      <c r="M53" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="M53" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N53" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O53" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P53" s="4">
+        <v>45722</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>372</v>
       </c>
@@ -6837,38 +6922,38 @@
       <c r="E54" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="H54" s="8" t="s">
+      <c r="I54" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="J54" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="K54" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K54" s="1">
+      <c r="L54" s="1">
         <v>1</v>
       </c>
-      <c r="L54" s="1" t="s">
+      <c r="M54" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M54" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O54" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P54" s="4">
+        <v>45722</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>229</v>
       </c>
@@ -6884,41 +6969,41 @@
       <c r="E55" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="G55" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="I55" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="J55" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="K55" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="K55" s="1">
+      <c r="L55" s="1">
         <v>0.84100002050399802</v>
       </c>
-      <c r="L55" s="1" t="s">
+      <c r="M55" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="M55" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N55" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O55" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P55" s="4">
+        <v>45722</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>382</v>
       </c>
@@ -6928,44 +7013,44 @@
       <c r="C56" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="12" t="s">
         <v>384</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="I56" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="J56" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="K56" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="K56" s="1">
+      <c r="L56" s="1">
         <v>0.78540503978729304</v>
       </c>
-      <c r="L56" s="1" t="s">
+      <c r="M56" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="M56" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N56" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O56" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P56" s="4">
+        <v>45722</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>140</v>
       </c>
@@ -6975,50 +7060,50 @@
       <c r="C57" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="12" t="s">
         <v>389</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="G57" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="H57" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="I57" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="J57" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="K57" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="K57" s="1">
+      <c r="L57" s="1">
         <v>0.71015173196792603</v>
       </c>
-      <c r="L57" s="1" t="s">
+      <c r="M57" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="M57" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O57" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P57" s="4">
+        <v>45722</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>286</v>
       </c>
@@ -7028,47 +7113,47 @@
       <c r="C58" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="12" t="s">
         <v>392</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="G58" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="I58" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="J58" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="K58" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="K58" s="1">
+      <c r="L58" s="1">
         <v>1</v>
       </c>
-      <c r="L58" s="1" t="s">
+      <c r="M58" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="M58" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N58" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O58" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P58" s="4">
+        <v>45722</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>397</v>
       </c>
@@ -7078,44 +7163,44 @@
       <c r="C59" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="12" t="s">
         <v>400</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="H59" s="3" t="s">
+      <c r="I59" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="J59" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="K59" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="K59" s="1">
+      <c r="L59" s="1">
         <v>1</v>
       </c>
-      <c r="L59" s="1" t="s">
+      <c r="M59" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="M59" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N59" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O59" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P59" s="4">
+        <v>45722</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>97</v>
       </c>
@@ -7125,47 +7210,47 @@
       <c r="C60" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="12" t="s">
         <v>404</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="G60" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="I60" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="J60" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="K60" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="K60" s="1">
+      <c r="L60" s="1">
         <v>1</v>
       </c>
-      <c r="L60" s="1" t="s">
+      <c r="M60" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="M60" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O60" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P60" s="4">
+        <v>45722</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>407</v>
       </c>
@@ -7175,50 +7260,50 @@
       <c r="C61" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="12" t="s">
         <v>410</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="G61" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="G61" s="6" t="s">
+      <c r="H61" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="H61" s="8" t="s">
+      <c r="I61" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="J61" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="K61" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="K61" s="1">
+      <c r="L61" s="1">
         <v>1</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="M61" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="M61" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N61" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O61" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P61" s="4">
+        <v>45722</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>323</v>
       </c>
@@ -7228,47 +7313,47 @@
       <c r="C62" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="12" t="s">
         <v>412</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="G62" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="I62" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="J62" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="K62" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="K62" s="1">
+      <c r="L62" s="1">
         <v>1</v>
       </c>
-      <c r="L62" s="1" t="s">
+      <c r="M62" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="M62" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N62" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O62" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P62" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P62" s="4">
+        <v>45722</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>415</v>
       </c>
@@ -7278,44 +7363,44 @@
       <c r="C63" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="13" t="s">
         <v>417</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="I63" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="J63" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="K63" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K63" s="1">
+      <c r="L63" s="1">
         <v>0.80119103193283103</v>
       </c>
-      <c r="L63" s="1" t="s">
+      <c r="M63" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M63" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N63" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O63" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P63" s="4">
+        <v>45722</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>335</v>
       </c>
@@ -7331,38 +7416,39 @@
       <c r="E64" s="11" t="s">
         <v>538</v>
       </c>
-      <c r="F64" s="6" t="s">
+      <c r="F64" s="11"/>
+      <c r="G64" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="H64" s="8" t="s">
+      <c r="I64" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="J64" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="K64" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="K64" s="1">
+      <c r="L64" s="1">
         <v>0.88891661167144798</v>
       </c>
-      <c r="M64" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N64" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O64" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P64" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P64" s="4">
+        <v>45722</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>198</v>
       </c>
@@ -7378,38 +7464,38 @@
       <c r="E65" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="F65" s="6" t="s">
+      <c r="G65" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="H65" s="3" t="s">
+      <c r="I65" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="J65" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="K65" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="K65" s="1">
+      <c r="L65" s="1">
         <v>0.71869289875030495</v>
       </c>
-      <c r="M65" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N65" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O65" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P65" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P65" s="4">
+        <v>45722</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>140</v>
       </c>
@@ -7425,41 +7511,41 @@
       <c r="E66" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="G66" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="H66" s="8" t="s">
+      <c r="I66" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="J66" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="J66" s="1" t="s">
+      <c r="K66" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K66" s="1">
+      <c r="L66" s="1">
         <v>0.77879101037979104</v>
       </c>
-      <c r="L66" s="1" t="s">
+      <c r="M66" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M66" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N66" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O66" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P66" s="4">
+        <v>45722</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>427</v>
       </c>
@@ -7475,38 +7561,38 @@
       <c r="E67" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="H67" s="3" t="s">
+      <c r="I67" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="J67" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="J67" s="1" t="s">
+      <c r="K67" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K67" s="1">
+      <c r="L67" s="1">
         <v>0.94853866100311302</v>
       </c>
-      <c r="L67" s="1" t="s">
+      <c r="M67" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="M67" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N67" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O67" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P67" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P67" s="4">
+        <v>45722</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>432</v>
       </c>
@@ -7522,38 +7608,38 @@
       <c r="E68" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="I68" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="J68" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="K68" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K68" s="1">
+      <c r="L68" s="1">
         <v>0.79365849494934104</v>
       </c>
-      <c r="L68" s="1" t="s">
+      <c r="M68" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="M68" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N68" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O68" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P68" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P68" s="4">
+        <v>45722</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>437</v>
       </c>
@@ -7569,38 +7655,38 @@
       <c r="E69" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="H69" s="3" t="s">
+      <c r="I69" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="I69" s="1" t="s">
+      <c r="J69" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="J69" s="1" t="s">
+      <c r="K69" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="K69" s="1">
+      <c r="L69" s="1">
         <v>0.90627044439315796</v>
       </c>
-      <c r="L69" s="1" t="s">
+      <c r="M69" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="M69" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N69" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O69" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P69" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P69" s="4">
+        <v>45722</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>229</v>
       </c>
@@ -7616,38 +7702,38 @@
       <c r="E70" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="H70" s="3" t="s">
+      <c r="I70" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="I70" s="1" t="s">
+      <c r="J70" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="J70" s="1" t="s">
+      <c r="K70" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K70" s="1">
+      <c r="L70" s="1">
         <v>0.85638332366943404</v>
       </c>
-      <c r="L70" s="1" t="s">
+      <c r="M70" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="M70" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N70" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O70" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P70" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P70" s="4">
+        <v>45722</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>445</v>
       </c>
@@ -7663,35 +7749,35 @@
       <c r="E71" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="H71" s="8" t="s">
+      <c r="I71" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="J71" s="1" t="s">
+      <c r="K71" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K71" s="1">
+      <c r="L71" s="1">
         <v>0.84253364801406905</v>
       </c>
-      <c r="L71" s="1" t="s">
+      <c r="M71" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M71" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N71" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O71" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P71" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P71" s="4">
+        <v>45722</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>90</v>
       </c>
@@ -7701,47 +7787,47 @@
       <c r="C72" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="12" t="s">
         <v>448</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="G72" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="G72" s="6" t="s">
+      <c r="H72" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="H72" s="5" t="s">
+      <c r="I72" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="K72" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="K72" s="1">
+      <c r="L72" s="1">
         <v>0.77832150459289595</v>
       </c>
-      <c r="L72" s="1" t="s">
+      <c r="M72" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="M72" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N72" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O72" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P72" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P72" s="4">
+        <v>45722</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>452</v>
       </c>
@@ -7751,47 +7837,48 @@
       <c r="C73" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="12" t="s">
         <v>455</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="F73" s="6" t="s">
+      <c r="F73" s="10"/>
+      <c r="G73" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="G73" s="6" t="s">
+      <c r="H73" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="H73" s="5" t="s">
+      <c r="I73" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="J73" s="1" t="s">
+      <c r="K73" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="K73" s="1">
+      <c r="L73" s="1">
         <v>0.88536131381988503</v>
       </c>
-      <c r="L73" s="1" t="s">
+      <c r="M73" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="M73" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N73" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O73" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P73" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P73" s="4">
+        <v>45722</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>459</v>
       </c>
@@ -7801,128 +7888,129 @@
       <c r="C74" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="12" t="s">
         <v>461</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="F74" s="6" t="s">
+      <c r="G74" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="G74" s="6" t="s">
+      <c r="H74" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="H74" s="9" t="s">
+      <c r="I74" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="K74" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="K74" s="1">
+      <c r="L74" s="1">
         <v>0.71191614866256703</v>
       </c>
-      <c r="L74" s="1" t="s">
+      <c r="M74" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="M74" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N74" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O74" s="4">
-        <v>45722</v>
-      </c>
-      <c r="P74" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P74" s="4">
+        <v>45722</v>
       </c>
       <c r="Q74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R74" s="1" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H72" r:id="rId1" display="https://www.ebi.ac.uk/ols4/ontologies/txpo/classes/http%253A%252F%252Fpurl.obolibrary.org%252Fobo%252FTXPO_0000270?lang=en" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
-    <hyperlink ref="H73" r:id="rId2" display="https://www.ebi.ac.uk/ols4/ontologies/uberon/classes/http%253A%252F%252Fpurl.obolibrary.org%252Fobo%252FUBERON_0013073" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
-    <hyperlink ref="H74" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
-    <hyperlink ref="H71" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
-    <hyperlink ref="H70" r:id="rId5" display="https://www.ebi.ac.uk/ols/ontologies/stato/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FSTATO_0000700" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
-    <hyperlink ref="H69" r:id="rId6" display="https://www.ebi.ac.uk/ols/ontologies/stato/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FSTATO_0000142" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
-    <hyperlink ref="H68" r:id="rId7" display="https://www.ebi.ac.uk/ols/ontologies/stato/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FSTATO_0000083" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
-    <hyperlink ref="H67" r:id="rId8" display="https://www.ebi.ac.uk/ols/ontologies/stato/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FSTATO_0000037" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="H66" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
-    <hyperlink ref="H65" r:id="rId10" display="https://www.ebi.ac.uk/ols/ontologies/sbo/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FSBO_0000393" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
-    <hyperlink ref="H64" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="H62" r:id="rId12" display="https://www.ebi.ac.uk/ols/ontologies/omit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FOMIT_0021132" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="H61" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="H60" r:id="rId14" display="https://www.ebi.ac.uk/ols/ontologies/omit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FOMIT_0016595" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="H59" r:id="rId15" display="https://www.ebi.ac.uk/ols/ontologies/omit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FOMIT_0012971" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="H58" r:id="rId16" display="https://www.ebi.ac.uk/ols/ontologies/omit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FOMIT_0003464" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="H57" r:id="rId17" display="https://www.ebi.ac.uk/ols/ontologies/occo/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FOCCO_41901200" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="H56" r:id="rId18" display="https://www.ebi.ac.uk/ols/ontologies/occo/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FOCCO_00000108" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="H55" r:id="rId19" display="https://www.ebi.ac.uk/ols/ontologies/obi/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FOBI_0000175" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="H54" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="H53" r:id="rId21" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C87194" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="H52" r:id="rId22" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C78547" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="H51" r:id="rId23" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C73485" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="H50" r:id="rId24" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C71460" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="H49" r:id="rId25" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C65172" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="H48" r:id="rId26" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C64646" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="H47" r:id="rId27" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C54165" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="H46" r:id="rId28" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C53228" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="H45" r:id="rId29" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C49291" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="H44" r:id="rId30" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C48293" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="H43" r:id="rId31" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C48187" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="H42" r:id="rId32" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C47679" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="H41" r:id="rId33" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C44185" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="H40" r:id="rId34" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C43383" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="H39" r:id="rId35" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C41573" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="H38" r:id="rId36" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C28901" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="H37" r:id="rId37" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C25687" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="H36" r:id="rId38" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C25625" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="H35" r:id="rId39" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C25391" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="H34" r:id="rId40" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C19650" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="H33" r:id="rId41" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C17771" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="H32" r:id="rId42" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C17672" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="H31" r:id="rId43" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C172800" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="H30" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="H29" r:id="rId45" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C16866" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="H28" r:id="rId46" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C13303" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="H27" r:id="rId47" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C112927" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="H26" r:id="rId48" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="H25" r:id="rId49" display="https://www.ebi.ac.uk/ols/ontologies/ms/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FMS_1000531" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="H24" r:id="rId50" display="https://www.ebi.ac.uk/ols/ontologies/mi/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FMI_0190" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="H23" r:id="rId51" display="https://www.ebi.ac.uk/ols/ontologies/mi/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FMI_0114" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="H22" r:id="rId52" display="https://www.ebi.ac.uk/ols/ontologies/mi/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FMI_0077" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="H21" r:id="rId53" display="https://www.ebi.ac.uk/ols/ontologies/kisao/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FKISAO_0000475" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="H20" r:id="rId54" display="https://www.ebi.ac.uk/ols/ontologies/ido/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FIDO_0000607" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="H19" r:id="rId55" display="https://www.ebi.ac.uk/ols/ontologies/iao/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FIAO_0020000" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="H18" r:id="rId56" display="https://www.ebi.ac.uk/ols/ontologies/iao/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FIAO_0000064" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="H17" r:id="rId57" display="https://www.ebi.ac.uk/ols/ontologies/iao/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FIAO_0000010" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="H16" r:id="rId58" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="H15" r:id="rId59" display="https://www.ebi.ac.uk/ols/ontologies/fix/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FFIX_0000503" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="H14" r:id="rId60" display="https://www.ebi.ac.uk/ols/ontologies/fix/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FFIX_0000327" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="H13" r:id="rId61" display="https://www.ebi.ac.uk/ols/ontologies/fix/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FFIX_0000007" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="H12" r:id="rId62" display="https://www.ebi.ac.uk/ols/ontologies/fbcv/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FFBcv_0003108" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="H11" r:id="rId63" display="https://www.ebi.ac.uk/ols/ontologies/exo/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FExO_0000090" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="H10" r:id="rId64" display="https://www.ebi.ac.uk/ols/ontologies/exo/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FExO_0000072" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="H9" r:id="rId65" display="https://www.ebi.ac.uk/ols/ontologies/eco/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FECO_0006181" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="H8" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="H7" r:id="rId67" display="https://www.ebi.ac.uk/ols/ontologies/chebi/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FCHEBI_32588" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="H6" r:id="rId68" display="https://www.ebi.ac.uk/ols/ontologies/chebi/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FCHEBI_26710" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="H5" r:id="rId69" display="https://www.ebi.ac.uk/ols/ontologies/chebi/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FCHEBI_24866" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="H4" r:id="rId70" display="https://www.ebi.ac.uk/ols/ontologies/bfo/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FBFO_0000015" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="H3" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="H2" r:id="rId72" display="https://www.ebi.ac.uk/ols/ontologies/afo/terms?iri=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fprocess%23AFP_0003374" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="I72" r:id="rId1" display="https://www.ebi.ac.uk/ols4/ontologies/txpo/classes/http%253A%252F%252Fpurl.obolibrary.org%252Fobo%252FTXPO_0000270?lang=en" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="I73" r:id="rId2" display="https://www.ebi.ac.uk/ols4/ontologies/uberon/classes/http%253A%252F%252Fpurl.obolibrary.org%252Fobo%252FUBERON_0013073" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="I74" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="I71" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="I70" r:id="rId5" display="https://www.ebi.ac.uk/ols/ontologies/stato/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FSTATO_0000700" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="I69" r:id="rId6" display="https://www.ebi.ac.uk/ols/ontologies/stato/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FSTATO_0000142" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="I68" r:id="rId7" display="https://www.ebi.ac.uk/ols/ontologies/stato/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FSTATO_0000083" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="I67" r:id="rId8" display="https://www.ebi.ac.uk/ols/ontologies/stato/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FSTATO_0000037" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="I66" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="I65" r:id="rId10" display="https://www.ebi.ac.uk/ols/ontologies/sbo/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FSBO_0000393" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="I64" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="I62" r:id="rId12" display="https://www.ebi.ac.uk/ols/ontologies/omit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FOMIT_0021132" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="I61" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="I60" r:id="rId14" display="https://www.ebi.ac.uk/ols/ontologies/omit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FOMIT_0016595" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="I59" r:id="rId15" display="https://www.ebi.ac.uk/ols/ontologies/omit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FOMIT_0012971" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="I58" r:id="rId16" display="https://www.ebi.ac.uk/ols/ontologies/omit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FOMIT_0003464" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="I57" r:id="rId17" display="https://www.ebi.ac.uk/ols/ontologies/occo/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FOCCO_41901200" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="I56" r:id="rId18" display="https://www.ebi.ac.uk/ols/ontologies/occo/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FOCCO_00000108" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="I55" r:id="rId19" display="https://www.ebi.ac.uk/ols/ontologies/obi/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FOBI_0000175" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="I54" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="I53" r:id="rId21" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C87194" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="I52" r:id="rId22" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C78547" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="I51" r:id="rId23" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C73485" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="I50" r:id="rId24" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C71460" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="I49" r:id="rId25" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C65172" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="I48" r:id="rId26" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C64646" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="I47" r:id="rId27" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C54165" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="I46" r:id="rId28" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C53228" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="I45" r:id="rId29" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C49291" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="I44" r:id="rId30" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C48293" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="I43" r:id="rId31" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C48187" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="I42" r:id="rId32" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C47679" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="I41" r:id="rId33" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C44185" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="I40" r:id="rId34" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C43383" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="I39" r:id="rId35" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C41573" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="I38" r:id="rId36" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C28901" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="I37" r:id="rId37" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C25687" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="I36" r:id="rId38" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C25625" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="I35" r:id="rId39" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C25391" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="I34" r:id="rId40" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C19650" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="I33" r:id="rId41" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C17771" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="I32" r:id="rId42" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C17672" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="I31" r:id="rId43" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C172800" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="I30" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="I29" r:id="rId45" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C16866" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="I28" r:id="rId46" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C13303" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="I27" r:id="rId47" display="https://www.ebi.ac.uk/ols/ontologies/ncit/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FNCIT_C112927" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="I26" r:id="rId48" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="I25" r:id="rId49" display="https://www.ebi.ac.uk/ols/ontologies/ms/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FMS_1000531" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="I24" r:id="rId50" display="https://www.ebi.ac.uk/ols/ontologies/mi/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FMI_0190" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="I23" r:id="rId51" display="https://www.ebi.ac.uk/ols/ontologies/mi/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FMI_0114" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="I22" r:id="rId52" display="https://www.ebi.ac.uk/ols/ontologies/mi/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FMI_0077" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="I21" r:id="rId53" display="https://www.ebi.ac.uk/ols/ontologies/kisao/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FKISAO_0000475" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="I20" r:id="rId54" display="https://www.ebi.ac.uk/ols/ontologies/ido/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FIDO_0000607" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="I19" r:id="rId55" display="https://www.ebi.ac.uk/ols/ontologies/iao/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FIAO_0020000" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="I18" r:id="rId56" display="https://www.ebi.ac.uk/ols/ontologies/iao/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FIAO_0000064" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="I17" r:id="rId57" display="https://www.ebi.ac.uk/ols/ontologies/iao/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FIAO_0000010" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="I16" r:id="rId58" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="I15" r:id="rId59" display="https://www.ebi.ac.uk/ols/ontologies/fix/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FFIX_0000503" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="I14" r:id="rId60" display="https://www.ebi.ac.uk/ols/ontologies/fix/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FFIX_0000327" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="I13" r:id="rId61" display="https://www.ebi.ac.uk/ols/ontologies/fix/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FFIX_0000007" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="I12" r:id="rId62" display="https://www.ebi.ac.uk/ols/ontologies/fbcv/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FFBcv_0003108" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="I11" r:id="rId63" display="https://www.ebi.ac.uk/ols/ontologies/exo/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FExO_0000090" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="I10" r:id="rId64" display="https://www.ebi.ac.uk/ols/ontologies/exo/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FExO_0000072" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="I9" r:id="rId65" display="https://www.ebi.ac.uk/ols/ontologies/eco/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FECO_0006181" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="I8" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="I7" r:id="rId67" display="https://www.ebi.ac.uk/ols/ontologies/chebi/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FCHEBI_32588" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="I6" r:id="rId68" display="https://www.ebi.ac.uk/ols/ontologies/chebi/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FCHEBI_26710" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="I5" r:id="rId69" display="https://www.ebi.ac.uk/ols/ontologies/chebi/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FCHEBI_24866" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="I4" r:id="rId70" display="https://www.ebi.ac.uk/ols/ontologies/bfo/terms?iri=http%3A%2F%2Fpurl.obolibrary.org%2Fobo%2FBFO_0000015" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="I3" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="I2" r:id="rId72" display="https://www.ebi.ac.uk/ols/ontologies/afo/terms?iri=http%3A%2F%2Fpurl.allotrope.org%2Fontologies%2Fprocess%23AFP_0003374" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="I63" r:id="rId73" xr:uid="{E174439A-C301-4A77-9B9B-1F1E8E2659DA}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId73"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId74"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId74"/>
+  <legacyDrawing r:id="rId75"/>
 </worksheet>
 </file>
 

--- a/src/ontology/mappings/OBO-space/07.03.2025-mapped-terms-analysis.xlsx
+++ b/src/ontology/mappings/OBO-space/07.03.2025-mapped-terms-analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\fathoni\github\molsim-ontology\src\ontology\mappings\OBO-space\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B16150A-A89B-4C78-B1DE-26C6A46BF82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C5CAF8-4C2B-4829-B294-8A2A423C5F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3536,7 +3536,7 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>

--- a/src/ontology/mappings/OBO-space/07.03.2025-mapped-terms-analysis.xlsx
+++ b/src/ontology/mappings/OBO-space/07.03.2025-mapped-terms-analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\fathoni\github\molsim-ontology\src\ontology\mappings\OBO-space\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C5CAF8-4C2B-4829-B294-8A2A423C5F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04933AA5-434C-4B81-80AB-AD2F1DB2912A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3536,7 +3536,7 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4310,8 +4310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R74"/>
   <sheetViews>
-    <sheetView topLeftCell="C53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -5597,7 +5597,7 @@
       <c r="C27" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="13" t="s">
         <v>234</v>
       </c>
       <c r="E27" s="7" t="s">
@@ -6227,7 +6227,7 @@
       <c r="C40" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="13" t="s">
         <v>298</v>
       </c>
       <c r="E40" s="7" t="s">

--- a/src/ontology/mappings/OBO-space/07.03.2025-mapped-terms-analysis.xlsx
+++ b/src/ontology/mappings/OBO-space/07.03.2025-mapped-terms-analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\fathoni\github\molsim-ontology\src\ontology\mappings\OBO-space\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04933AA5-434C-4B81-80AB-AD2F1DB2912A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6186F73C-7751-407A-9D98-08218A04C994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="-18120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Property" sheetId="1" r:id="rId1"/>
@@ -3269,9 +3269,6 @@
     <t>all of these seem similar: ENVO:00000523, NCIT:C47877, STATO:0000633</t>
   </si>
   <si>
-    <t>discard - possibly due to irrelevance, scope mismatch, maintenance/quality issues</t>
-  </si>
-  <si>
     <t>need to be discussed further</t>
   </si>
   <si>
@@ -3279,6 +3276,9 @@
   </si>
   <si>
     <t>hierarchy relevant?</t>
+  </si>
+  <si>
+    <t>discard - due to irrelevance, scope mismatch, maintenance/quality issues</t>
   </si>
 </sst>
 </file>
@@ -3535,8 +3535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3572,7 +3572,7 @@
         <v>472</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>475</v>
@@ -3944,7 +3944,7 @@
       <c r="C9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -4266,12 +4266,12 @@
     </row>
     <row r="19" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D19" s="12" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="20" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D20" s="13" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="25" spans="4:25" x14ac:dyDescent="0.25">
@@ -4311,7 +4311,7 @@
   <dimension ref="A1:R74"/>
   <sheetViews>
     <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C71" sqref="C71:D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -4352,7 +4352,7 @@
         <v>472</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>570</v>
